--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,12 +489,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,27 +575,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -602,27 +607,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -644,17 +649,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -769,7 +774,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -806,22 +811,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS161**</t>
+          <t>**HS152**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -831,7 +836,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -841,7 +846,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -853,22 +858,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -878,7 +883,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -888,7 +893,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -900,17 +905,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -947,22 +952,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -982,7 +987,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -994,22 +999,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**HS152**</t>
+          <t>**CS161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1019,7 +1024,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1029,7 +1034,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1041,17 +1046,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1066,7 +1071,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1108,7 +1113,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1129,6 +1134,3711 @@
       <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27.1%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 54.3%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 32.1/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='Yes' -&gt; Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction to quantum physics</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Manjunath</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Computational musicology for hindustani music</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to DS and AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -3631,7 +3631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5364,24 +5364,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5393,12 +5389,12 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -5418,12 +5414,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5449,7 +5445,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5508,7 +5508,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5516,7 +5520,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -5536,27 +5540,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5567,15 +5571,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -5595,27 +5603,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5626,15 +5634,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -5654,27 +5666,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5685,15 +5697,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -5713,12 +5729,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5744,7 +5760,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5752,7 +5772,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5797,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5815,7 +5835,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5860,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5878,7 +5898,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5923,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5941,7 +5961,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5986,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6004,7 +6024,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6049,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6067,7 +6087,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -6092,22 +6112,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -6118,19 +6138,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6150,12 +6166,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6174,18 +6190,14 @@
         </is>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6193,7 +6205,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6213,27 +6225,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6244,19 +6256,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6276,12 +6284,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6319,7 +6327,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6347,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6382,7 +6390,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -6402,12 +6410,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6445,7 +6453,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -6465,27 +6473,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6496,15 +6504,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -6524,12 +6536,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6555,7 +6567,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6563,7 +6579,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -6583,27 +6599,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6614,15 +6630,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -6642,12 +6662,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6685,7 +6705,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -6705,12 +6725,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6748,7 +6768,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6768,12 +6788,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6811,7 +6831,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6831,12 +6851,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6874,7 +6894,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6894,12 +6914,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6937,3865 +6957,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
           <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,182 +481,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161 [L405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C104]</t>
+          <t>MA162 [L405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C203]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS152 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 (Lab) [L406]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,37 +666,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS152 [C101]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C101]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -791,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, HS152, CS151</t>
+          <t>HS157, HS156</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -824,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,7 +946,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -891,7 +955,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -917,7 +981,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -926,7 +990,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -934,76 +998,6 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1117,16 +1111,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1185,16 +1179,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>32.5</v>
+        <v>11.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1219,16 +1213,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1321,16 +1315,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1355,16 +1349,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1491,16 +1485,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1525,16 +1519,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1593,16 +1587,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1729,16 +1723,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1899,16 +1893,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2151,16 +2145,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2281,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,182 +2318,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161 [L405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [C104]</t>
+          <t>MA162 [L405]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161 [C203]</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HS152 [C101]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>MA162 [C004]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>CS161 (Lab) [L405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EC161 [C305]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2509,37 +2503,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS152 [C101]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC161 [C004]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C101]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2594,7 +2652,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C205, C302</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2669,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101, C302</t>
         </is>
       </c>
     </row>
@@ -2623,12 +2681,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C101, C203</t>
         </is>
       </c>
     </row>
@@ -2640,12 +2698,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C004, C203</t>
         </is>
       </c>
     </row>
@@ -2657,12 +2715,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -2674,12 +2732,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003, C104, C202</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2749,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C202, C302</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2766,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C102, C202</t>
         </is>
       </c>
     </row>
@@ -2725,12 +2783,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -2742,12 +2800,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101, C104, C205</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2822,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101, C204</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2982,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, L406</t>
         </is>
       </c>
     </row>
@@ -2971,7 +3029,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3076,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104, C004</t>
+          <t>L405, C004</t>
         </is>
       </c>
     </row>
@@ -3065,7 +3123,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C305, C101, C004</t>
+          <t>L206, C004</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3170,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L405, C205</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3217,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C203, C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3244,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 14</t>
+          <t>Lectures: 13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3221,7 +3279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,26 +3337,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3306,42 +3364,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS152, EC161, CS161...</t>
+          <t>DS161, MA161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3349,23 +3407,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162, EC161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3384,7 +3442,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3392,42 +3450,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS152, CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3439,19 +3497,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3461,7 +3519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3482,7 +3540,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3494,7 +3552,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3504,7 +3562,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3513,7 +3571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3525,98 +3583,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3705,6 +3677,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3732,17 +3709,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3756,12 +3733,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3791,17 +3773,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3815,12 +3797,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3850,17 +3837,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -3874,12 +3861,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3909,17 +3901,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3933,12 +3925,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3968,17 +3965,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3992,12 +3989,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4029,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4051,12 +4053,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4118,6 +4125,11 @@
           <t>MA162</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4145,17 +4157,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -4169,12 +4181,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4216,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4209,12 +4226,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4228,12 +4245,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4258,7 +4280,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4295,6 +4317,11 @@
           <t>EC161</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4317,26 +4344,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -4346,12 +4373,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4376,22 +4408,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4405,12 +4437,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4430,27 +4467,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4464,12 +4501,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4494,22 +4536,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4523,12 +4565,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4548,27 +4595,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4582,12 +4629,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4612,17 +4664,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4641,12 +4693,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4676,17 +4733,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4704,12 +4761,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4772,7 +4834,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4802,17 +4869,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4830,12 +4897,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4865,19 +4937,15 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="b">
         <v>0</v>
       </c>
@@ -4893,12 +4961,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4928,17 +5001,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4956,12 +5029,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4991,17 +5069,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5019,12 +5097,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5054,17 +5137,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5082,12 +5165,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5117,17 +5205,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5145,12 +5233,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5180,17 +5273,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5208,12 +5301,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5243,17 +5341,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5271,12 +5369,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5306,17 +5409,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5334,12 +5437,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5369,15 +5477,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5389,7 +5501,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5397,6 +5509,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5419,24 +5532,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -5445,21 +5554,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5477,27 +5583,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5515,12 +5621,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5540,27 +5651,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5578,12 +5689,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5603,27 +5719,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5641,12 +5757,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5666,27 +5787,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5704,12 +5825,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5729,12 +5855,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5772,7 +5898,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5792,27 +5923,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5830,12 +5961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5855,27 +5991,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5893,12 +6029,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5918,27 +6059,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5956,12 +6097,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5981,27 +6127,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6019,12 +6165,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6044,27 +6195,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6082,12 +6233,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6263,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -6117,19 +6273,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6138,15 +6290,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6166,46 +6327,55 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6225,27 +6395,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6256,15 +6426,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6284,27 +6463,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6322,12 +6501,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6347,27 +6531,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6385,12 +6569,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6410,27 +6599,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6448,12 +6637,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6473,27 +6667,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6511,12 +6705,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6536,27 +6735,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6574,12 +6773,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6599,27 +6803,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6637,12 +6841,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6662,27 +6871,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6700,12 +6909,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6725,29 +6939,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6763,12 +6973,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6788,27 +7003,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6826,12 +7041,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6851,7 +7071,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6861,17 +7081,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6882,84 +7102,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7231,7 +7385,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>1/1/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7510,7 +7664,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7574,12 +7728,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7750,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27.1%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 54.3%, B: 0.0%</t>
+          <t>A: 40.0%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7623,7 +7777,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 32.1/100</t>
+          <t>Score: 30.0/100</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -2145,16 +2145,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2247,16 +2247,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L405]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C205, C302</t>
+          <t>C205, C302</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C101, C302</t>
+          <t>C101, C302</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C003, C101, C203</t>
+          <t>C101, C203</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C004, C203</t>
+          <t>C004, C203</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C104, C202</t>
+          <t>C003, C202</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C202, C302</t>
+          <t>C002, C202</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C102, C202</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C101, C104, C205</t>
+          <t>C001, C101, C104</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3861,7 +3861,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4801,17 +4801,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4869,17 +4869,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4942,10 +4942,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
@@ -4961,12 +4965,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5011,7 +5015,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -5029,12 +5033,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5097,12 +5101,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5137,12 +5141,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5165,12 +5169,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5233,12 +5237,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5301,12 +5305,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5351,7 +5355,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5369,7 +5373,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5409,19 +5413,15 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5477,19 +5477,15 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5501,7 +5497,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5532,20 +5528,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -5554,18 +5554,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5583,27 +5591,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5621,17 +5629,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5651,22 +5659,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5689,17 +5697,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5727,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5757,17 +5765,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5787,12 +5795,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5807,7 +5815,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5825,17 +5833,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5855,27 +5863,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5893,17 +5901,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5923,22 +5931,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5961,17 +5969,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5999,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6029,17 +6037,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6059,22 +6067,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6097,17 +6105,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6127,29 +6135,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -6165,17 +6169,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6199,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6215,7 +6219,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -6233,17 +6237,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6273,15 +6277,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6297,12 +6305,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6327,12 +6335,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6370,12 +6378,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6395,12 +6403,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6438,12 +6446,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6463,12 +6471,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6506,12 +6514,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6539,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6551,7 +6559,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6569,17 +6577,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6607,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6637,17 +6645,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6667,12 +6675,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6710,12 +6718,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6735,12 +6743,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6778,12 +6786,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6803,12 +6811,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6841,17 +6849,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6879,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6909,17 +6917,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6939,12 +6947,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6978,12 +6986,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -7008,24 +7016,20 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="b">
         <v>0</v>
       </c>
@@ -7034,26 +7038,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -523,22 +523,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [L405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
     </row>
@@ -550,27 +550,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [L405]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L406]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -855,11 +855,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156</t>
+          <t>HS157, HS156, HS152, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30</t>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -998,6 +998,76 @@
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1111,16 +1181,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1145,16 +1215,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1179,16 +1249,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.25</v>
+        <v>26.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1213,16 +1283,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1349,16 +1419,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1485,16 +1555,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1553,16 +1623,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1621,16 +1691,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1655,16 +1725,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2145,16 +2215,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2247,16 +2317,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2360,22 +2430,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [L405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
     </row>
@@ -2387,27 +2457,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [L405]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2521,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2461,7 +2531,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2483,7 +2553,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2493,7 +2563,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2515,7 +2585,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C101]</t>
+          <t>HS152 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2525,7 +2595,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2557,7 +2627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2614,7 +2684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2652,7 +2722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2739,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C302</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2751,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101, C203</t>
+          <t>C004, C101, L405</t>
         </is>
       </c>
     </row>
@@ -2698,12 +2768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2785,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2732,12 +2802,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C202</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2819,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C202</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2836,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2853,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2800,29 +2870,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C101, C104</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C001, C101, C204</t>
+          <t>L403</t>
         </is>
       </c>
     </row>
@@ -2947,17 +3000,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2977,12 +3030,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C101, L406</t>
+          <t>C004, L207</t>
         </is>
       </c>
     </row>
@@ -3029,7 +3082,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004, L405</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3129,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>L405, C004</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3176,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L206, C004</t>
+          <t>C004, L206</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3223,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405, C204</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3270,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003, C202</t>
         </is>
       </c>
     </row>
@@ -3234,17 +3287,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rate: 42.9%</t>
+          <t>Rate: 28.6%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lectures: 13</t>
+          <t>Lectures: 14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3259,7 +3312,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3279,7 +3332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3337,7 +3390,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3347,7 +3400,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3356,7 +3409,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3364,16 +3417,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS161, MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3452,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3407,23 +3460,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA162, EC161</t>
+          <t>EC161, HS152, CS161...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3442,7 +3495,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3450,42 +3503,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HS152, CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3497,38 +3550,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3540,34 +3593,34 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3587,6 +3640,49 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>HS152, MA161</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3603,7 +3699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3639,47 +3735,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3709,42 +3815,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3773,42 +3887,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3837,42 +3959,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3901,42 +4031,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>HS152</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3965,42 +4103,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4029,42 +4175,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>HS152</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4093,42 +4247,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4157,42 +4319,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4216,47 +4386,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4280,47 +4458,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Auditorium</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>240</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Audio/Video System</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>C004</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4344,47 +4530,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4408,47 +4602,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4467,52 +4669,60 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4536,47 +4746,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4595,52 +4813,60 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4664,47 +4890,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4733,46 +4967,50 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4801,46 +5039,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4869,46 +5115,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4937,46 +5191,54 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>CS151</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5005,46 +5267,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5073,46 +5343,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5141,46 +5419,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5209,46 +5495,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5277,46 +5571,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5345,46 +5647,54 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5403,7 +5713,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5413,42 +5723,50 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5467,45 +5785,65 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5533,46 +5871,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5601,46 +5947,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5669,46 +6023,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5737,46 +6099,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5805,46 +6175,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5873,46 +6251,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>HS102</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5941,46 +6327,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>HS103</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6009,46 +6403,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>DE101</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6067,56 +6469,60 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6135,52 +6541,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6199,56 +6617,64 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6277,46 +6703,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6345,46 +6779,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6413,46 +6855,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6481,46 +6931,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6549,46 +7007,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6617,46 +7083,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6685,431 +7159,55 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7195,17 +7293,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7230,7 +7328,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7381,7 +7479,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1/1/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7660,7 +7758,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7685,7 +7783,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 2</t>
+          <t>Core: 6, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -7724,12 +7822,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -7746,12 +7844,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>21.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 40.0%, B: 0.0%</t>
+          <t>A: 42.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 30.0/100</t>
+          <t>Score: 30.3/100</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8449,6 +8547,78 @@
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
@@ -9584,7 +9754,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -9602,7 +9772,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -9612,7 +9782,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -9640,7 +9810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10756,6 +10926,54 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [L405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -560,17 +560,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1555,16 +1555,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2440,12 +2440,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161 [L405]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2467,17 +2467,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DS161 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2521,17 +2521,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, C101, L405</t>
+          <t>C002, C004, L405</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L207</t>
+          <t>C004, L107</t>
         </is>
       </c>
     </row>
@@ -3089,17 +3089,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3136,22 +3136,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3171,151 +3171,57 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, L206</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Total Courses: 5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Rate: 40.0%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>L405, C204</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**DS161**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Complete</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C003, C202</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Total Courses: 7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rate: 28.6%</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Lectures: 14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[WARN] 5 issues</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3332,7 +3238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3390,26 +3296,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3417,42 +3323,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS152, MA161, DS161...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3460,23 +3366,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, HS152, CS161...</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3486,12 +3392,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3507,184 +3413,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>HS152, MA161</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3916,7 +3650,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3988,7 +3722,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -4247,7 +3981,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4281,7 +4015,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -4319,7 +4053,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4353,7 +4087,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -4391,7 +4125,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4425,7 +4159,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -4463,7 +4197,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4497,7 +4231,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -4525,32 +4259,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4558,23 +4292,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -4597,56 +4335,56 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P13" t="b">
@@ -4669,7 +4407,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4679,22 +4417,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4702,18 +4440,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -4741,17 +4483,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4774,18 +4516,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -4813,7 +4559,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4823,7 +4569,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4838,7 +4584,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4846,18 +4592,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4885,27 +4635,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4918,18 +4668,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4967,20 +4721,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -4996,12 +4754,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -5039,22 +4797,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5072,12 +4830,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -5115,7 +4873,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5130,7 +4888,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5148,12 +4906,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5191,7 +4949,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -5206,7 +4964,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5224,12 +4982,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5257,7 +5015,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5267,22 +5025,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5300,12 +5058,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5333,7 +5091,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5343,24 +5101,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5376,12 +5130,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5409,7 +5163,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5419,22 +5173,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5452,12 +5206,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5485,7 +5239,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5495,7 +5249,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5510,7 +5264,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5528,12 +5282,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5561,7 +5315,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5571,7 +5325,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5586,7 +5340,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5604,12 +5358,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5637,7 +5391,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5647,7 +5401,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5657,12 +5411,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5680,12 +5434,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5723,20 +5477,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
@@ -5752,12 +5510,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5795,22 +5553,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5828,12 +5586,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5871,7 +5629,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5886,7 +5644,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5904,12 +5662,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5947,7 +5705,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5962,7 +5720,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5980,12 +5738,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6013,32 +5771,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6056,17 +5814,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -6089,34 +5847,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6132,17 +5886,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -6165,32 +5919,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6208,17 +5962,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -6241,17 +5995,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6266,7 +6020,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6284,17 +6038,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -6317,17 +6071,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6342,7 +6096,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6360,17 +6114,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P36" t="b">
@@ -6393,17 +6147,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6413,12 +6167,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6436,17 +6190,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P37" t="b">
@@ -6479,20 +6233,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -6508,12 +6266,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6551,22 +6309,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6584,12 +6342,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6627,7 +6385,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6642,7 +6400,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6660,12 +6418,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6703,7 +6461,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6718,7 +6476,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6736,12 +6494,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -6750,462 +6508,6 @@
         </is>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7220,7 +6522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7350,7 +6652,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -7402,27 +6704,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3/0/2</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -7442,7 +6744,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7459,12 +6761,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7479,7 +6781,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7516,22 +6818,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -7565,120 +6867,6 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/0/2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7758,7 +6946,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7779,11 +6967,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 1</t>
+          <t>Core: 3, Elective: 2</t>
         </is>
       </c>
     </row>
@@ -7805,7 +6993,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/7 courses fully compliant</t>
+          <t>0/5 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7822,12 +7010,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>3/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 8.3%</t>
         </is>
       </c>
     </row>
@@ -7844,12 +7032,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 42.2%, B: 0.0%</t>
+          <t>A: 28.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7871,7 +7059,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 30.3/100</t>
+          <t>Score: 28.3/100</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8280,12 +7468,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8293,26 +7481,26 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -8352,12 +7540,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -8365,26 +7553,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -8424,12 +7612,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8451,12 +7639,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -8471,154 +7659,10 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Introduction to DS and AI</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
@@ -8716,7 +7760,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -8726,7 +7770,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8764,7 +7808,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -8774,7 +7818,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8812,7 +7856,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8827,7 +7871,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -8860,7 +7904,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -8875,7 +7919,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -8908,7 +7952,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -8918,7 +7962,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8956,7 +8000,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -8966,7 +8010,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -9004,7 +8048,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -9019,7 +8063,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -9052,7 +8096,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -9067,7 +8111,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -9100,7 +8144,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -9110,7 +8154,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -9148,7 +8192,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -9158,7 +8202,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9196,7 +8240,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -9211,7 +8255,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -9244,7 +8288,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Both (non-2-credit with Post mid-sem='No')</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -9259,7 +8303,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -9810,7 +8854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10065,12 +9109,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -10101,24 +9145,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -10149,24 +9193,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to quantum physics</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -10197,24 +9241,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ravishankar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -10245,24 +9289,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Vivekraj</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Introduction to quantum physics</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10298,19 +9342,19 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -10346,19 +9390,19 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Anand B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -10394,19 +9438,19 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -10442,23 +9486,23 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Sandesh Phalke</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -10470,17 +9514,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10490,23 +9534,23 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Manjunath</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -10518,17 +9562,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pre-Mid</t>
+          <t>Post-Mid</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -10538,23 +9582,23 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Computational musicology for hindustani music</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -10586,23 +9630,23 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>Chandrika Kamat</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -10634,23 +9678,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Computational musicology for hindustani music</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -10667,12 +9711,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -10682,23 +9726,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Chandrika Kamat</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -10715,12 +9759,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Any</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -10730,19 +9774,19 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -10773,202 +9817,10 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CSE</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Introduction to DS and AI</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Post-Mid</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>Girish Revadigar</t>
         </is>

--- a/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_ECE_post_mid_timetable.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [L405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>HS152 [C102]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1249,16 +1249,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1283,16 +1283,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [L405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C204]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS152 [C004]</t>
+          <t>HS152 [C102]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C004, L405</t>
+          <t>C102, C304, L405</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L107</t>
+          <t>L405, C003, L106</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004, L405</t>
+          <t>L405, C102</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,26 +3296,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3323,38 +3323,38 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>HS152, MA161, DS161...</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3382,43 +3382,172 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>L405</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CS161, HS152</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3554,17 +3683,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3578,7 +3707,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3650,7 +3779,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3722,7 +3851,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3770,17 +3899,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3794,7 +3923,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3842,17 +3971,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3866,7 +3995,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3986,17 +4115,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4010,7 +4139,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4058,17 +4187,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4082,7 +4211,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4130,17 +4259,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4154,7 +4283,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4202,17 +4331,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4226,7 +4355,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4274,17 +4403,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4302,7 +4431,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4350,15 +4479,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
@@ -4374,7 +4507,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4422,17 +4555,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4450,7 +4583,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4526,7 +4659,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4602,7 +4735,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4678,7 +4811,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4754,7 +4887,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4830,7 +4963,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4906,7 +5039,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4964,7 +5097,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -4982,7 +5115,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5030,17 +5163,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5058,7 +5191,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5106,15 +5239,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -5130,7 +5267,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5178,17 +5315,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5206,7 +5343,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5282,7 +5419,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5358,7 +5495,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5434,7 +5571,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5510,7 +5647,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5586,7 +5723,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5662,7 +5799,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5720,7 +5857,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5738,7 +5875,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5786,17 +5923,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -5814,7 +5951,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5862,15 +5999,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -5886,7 +6027,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5934,17 +6075,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -5962,7 +6103,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6038,7 +6179,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6114,7 +6255,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6190,7 +6331,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6266,7 +6407,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6342,7 +6483,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6418,7 +6559,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6476,7 +6617,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6494,7 +6635,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6946,7 +7087,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7010,12 +7151,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/36</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 8.3%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
